--- a/output/exported.xlsx
+++ b/output/exported.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,29 +431,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STATEMENTS OF FINANCIAL POSITION</t>
+          <t>STATEMENTS OF INCOME</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>As of December 31</t>
+          <t>For the Years Ended December 31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>(In Philippine Peso)</t>
+          <t>(In Philippine Pesos)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -463,461 +463,180 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ASSETS</t>
+          <t>SERVICE REVENUES</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>148943470</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>129515815</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CURRENT ASSETS</t>
+          <t>DIRECT COSTS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(98022496)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>(60812916)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
+          <t>GROSS INCOME FROM SERVICES</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8019962</t>
+          <t>50920975</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5355094</t>
+          <t>68702899</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trade and Other Receivables</t>
+          <t>OPERATING EXPENSES</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15b</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>41245809</t>
+          <t>(43469214)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>39874188</t>
+          <t>(64115043)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Other Current Assets</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>PROFIT BEFORE TAX</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1461775</t>
+          <t>7451761</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1569162</t>
+          <t>4587856</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TOTAL CURRENT ASSETS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>INCOME TAX EXPENSE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>50727546</t>
+          <t>(2235443)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>46798444</t>
+          <t>(1376357)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NONCURRENT ASSETS</t>
+          <t>PROFIT FOR THE YEAR</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5216318</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3211499</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Property and Equipment Net</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>211940163</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>219651287</t>
+          <t>```</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Refundable Deposits</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3868082</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3332451</t>
+          <t>Please note that the '</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TOTAL NONCURRENT ASSETS</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>215808245</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>222983738</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TOTAL ASSETS</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>266535791</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>269782182</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>LIABILITIES AND EQUITY</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CURRENT LIABILITIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Trade and Other Payables</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>13473761</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>13727690</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Loans Payable - Current</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>24436247</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>22154183</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TOTAL CURRENT LIABILITIES</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>37910008</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>35881873</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NONCURRENT LIABILITIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Loans Payable - Long-Term</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>56156925</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>86591627</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Advances from Related Parties</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>99860632</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>84688674</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>TOTAL NONCURRENT LIABILITIES</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>156017557</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>171280301</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>TOTAL LIABILITIES</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>193927565</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>207162174</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>EQUITY</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Share Capital</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>25000000</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>25000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Retained Earnings</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>47608226</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>37620008</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TOTAL EQUITY</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>72608226</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>62620008</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>TOTAL LIABILITIES AND EQUITY</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>266535791</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>269782182</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>(See Accompanying Notes to Financial Statements)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>```</t>
+          <t>' indicates a new row and '</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>' indicates a new column as per your instructions.</t>
         </is>
       </c>
     </row>
